--- a/DongAERP/Content/Report/ReportDetailtByPartnerLT.xlsx
+++ b/DongAERP/Content/Report/ReportDetailtByPartnerLT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C54948-993B-4406-BE83-7EADB1CF1035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869402BD-1A68-4530-B5C7-DAD949144A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <t>Tổng quy USD</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO  ĐỐI TÁC</t>
+    <t>BÁO CÁO CHI TIẾT - THEO  ĐỐI TÁC</t>
   </si>
 </sst>
 </file>
@@ -252,41 +252,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,19 +632,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
@@ -655,17 +655,17 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -685,29 +685,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="17" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
@@ -715,8 +715,8 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
